--- a/Search_Analysis_v2.xlsx
+++ b/Search_Analysis_v2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155">
   <si>
     <t>Typ fraze</t>
   </si>
@@ -55,37 +55,627 @@
     <t>Optimalizace analýzy textu</t>
   </si>
   <si>
+    <t>Col Mean-|</t>
+  </si>
+  <si>
     <t>Popisek stránky</t>
   </si>
   <si>
+    <r>
+      <t>Row Mean |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0 Bez op</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>1 Optima</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2 Popise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">3 Boost </t>
+    </r>
+  </si>
+  <si>
     <t>Boost hodnoty</t>
   </si>
   <si>
+    <t>---------+--------------------------------------------</t>
+  </si>
+  <si>
     <t>Rescore</t>
   </si>
   <si>
+    <r>
+      <t>1 Optima |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.199673</t>
+    </r>
+  </si>
+  <si>
     <t>zvýraznění hledaných výrazů</t>
   </si>
   <si>
     <t>Highlight</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.4209</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>|</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2 Popise |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2.456670</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2.374523</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.0070*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.0088*</t>
+    </r>
+  </si>
+  <si>
     <t>Přidá awid klientské uuSubApp do služby</t>
   </si>
   <si>
     <t>uuCmd - addClientAwid</t>
   </si>
   <si>
+    <r>
+      <t>3 Boost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3.032394</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2.980843</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.614246</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.0012*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.0014*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.2695</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4 Rescor |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3.384818</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3.351996</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.990250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.376004</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.0004*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.0004*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.1610</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <charset val="238"/>
+      </rPr>
+      <t>0.3535</t>
+    </r>
+  </si>
+  <si>
     <t>Zálohování dat v současné době neřešíme</t>
   </si>
   <si>
     <t>ElasticSearch</t>
   </si>
   <si>
+    <t>Dunnovy post-hoc testy</t>
+  </si>
+  <si>
+    <t>Optimalizace</t>
+  </si>
+  <si>
+    <t>0 Bez optimalizace</t>
+  </si>
+  <si>
+    <t>1 Optimalizace analýzy textu</t>
+  </si>
+  <si>
+    <t>2 Popisek</t>
+  </si>
+  <si>
+    <t>3 Boost</t>
+  </si>
+  <si>
     <t>Nutné kroky k použití služby v klientských aplikacích</t>
   </si>
   <si>
     <t>Použití v aplikacích</t>
+  </si>
+  <si>
+    <t>1 Optimalizace Analýzy textu</t>
+  </si>
+  <si>
+    <t>0.0070*</t>
+  </si>
+  <si>
+    <t>0.0088*</t>
+  </si>
+  <si>
+    <t>0.0012*</t>
+  </si>
+  <si>
+    <t>0.0014*</t>
+  </si>
+  <si>
+    <t>4 Rescore</t>
+  </si>
+  <si>
+    <t>0.0004*</t>
   </si>
   <si>
     <t>Zaregistruje awid klientské uuApp a tím umožní indexaci stránek s uri, které jej obsahují.</t>
@@ -411,12 +1001,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +1030,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="ClearSans"/>
@@ -453,14 +1049,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,7 +1124,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -490,9 +1139,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,16 +1169,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,74 +1185,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,19 +1231,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,37 +1261,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,13 +1291,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,103 +1429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1050,7 +1658,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1065,7 +1673,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1081,7 +1689,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,22 +1737,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1150,34 +1782,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1195,135 +1803,135 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1363,21 +1971,56 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1701,7 +2344,7 @@
   <dimension ref="A1:AE336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="L21" sqref="L21:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1712,8 +2355,9 @@
     <col min="4" max="4" width="25.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
     <col min="7" max="8" width="22.4285714285714" customWidth="1"/>
-    <col min="12" max="13" width="12.8571428571429"/>
-    <col min="14" max="14" width="10.5714285714286"/>
+    <col min="12" max="12" width="29.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="18.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="28.8571428571429" customWidth="1"/>
     <col min="15" max="17" width="12.8571428571429"/>
     <col min="18" max="18" width="10.5714285714286"/>
     <col min="19" max="19" width="12.8571428571429"/>
@@ -1784,7 +2428,7 @@
         <v>5.1379547</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:8">
+    <row r="3" spans="1:17">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -1809,8 +2453,11 @@
       <c r="H3" s="20">
         <v>5.121475</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="Q3" s="56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1821,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="22">
         <v>4</v>
@@ -1835,8 +2482,11 @@
       <c r="H4" s="24">
         <v>5.121475</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" spans="1:8">
+      <c r="Q4" s="56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -1847,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" s="26">
         <v>1</v>
@@ -1861,8 +2511,11 @@
       <c r="H5" s="28">
         <v>5.655435</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" spans="1:8">
+      <c r="Q5" s="56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -1873,7 +2526,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" s="30">
         <v>2</v>
@@ -1887,16 +2540,19 @@
       <c r="H6" s="32">
         <v>8.662925</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="Q6" s="56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>11</v>
@@ -1913,16 +2569,19 @@
       <c r="H7" s="36">
         <v>9.009133</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="Q7" s="56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>12</v>
@@ -1939,19 +2598,22 @@
       <c r="H8" s="20">
         <v>8.958122</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="Q8" s="56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="22">
         <v>2</v>
@@ -1965,19 +2627,22 @@
       <c r="H9" s="24">
         <v>8.958122</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="Q9" s="56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>14</v>
       </c>
       <c r="E10" s="26">
         <v>2</v>
@@ -1991,19 +2656,22 @@
       <c r="H10" s="28">
         <v>9.286417</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="Q10" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E11" s="30">
         <v>2</v>
@@ -2017,16 +2685,19 @@
       <c r="H11" s="32">
         <v>17.242382</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="Q11" s="56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>11</v>
@@ -2043,16 +2714,19 @@
       <c r="H12" s="36">
         <v>7.506315</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="Q12" s="56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>12</v>
@@ -2069,19 +2743,22 @@
       <c r="H13" s="20">
         <v>6.358651</v>
       </c>
-    </row>
-    <row r="14" ht="15.75" spans="1:8">
+      <c r="Q13" s="56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="22">
         <v>1</v>
@@ -2095,19 +2772,22 @@
       <c r="H14" s="24">
         <v>6.358651</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="Q14" s="56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15" s="26">
         <v>1</v>
@@ -2121,19 +2801,22 @@
       <c r="H15" s="28">
         <v>3.030048</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="Q15" s="56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>18</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>15</v>
       </c>
       <c r="E16" s="30">
         <v>1</v>
@@ -2146,6 +2829,9 @@
       </c>
       <c r="H16" s="32">
         <v>3.030048</v>
+      </c>
+      <c r="Q16" s="56" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2153,10 +2839,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>11</v>
@@ -2179,10 +2865,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>12</v>
@@ -2205,13 +2891,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="22">
         <v>1</v>
@@ -2226,18 +2912,18 @@
         <v>21.66123</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:11">
       <c r="A20" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20" s="26">
         <v>1</v>
@@ -2251,19 +2937,22 @@
       <c r="H20" s="28">
         <v>10.023251</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:16">
       <c r="A21" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21" s="30">
         <v>1</v>
@@ -2277,16 +2966,31 @@
       <c r="H21" s="32">
         <v>31.932909</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="L21" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="P21" s="42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>11</v>
@@ -2303,16 +3007,25 @@
       <c r="H22" s="36">
         <v>11.891364</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="L22" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="44">
+        <v>0.4209</v>
+      </c>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="46"/>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>12</v>
@@ -2329,19 +3042,30 @@
       <c r="H23" s="20">
         <v>12.078836</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="L23" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="50"/>
+      <c r="P23" s="51"/>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="22">
         <v>2</v>
@@ -2355,19 +3079,32 @@
       <c r="H24" s="24">
         <v>12.078836</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="L24" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="M24" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="O24" s="49">
+        <v>0.2695</v>
+      </c>
+      <c r="P24" s="51"/>
+    </row>
+    <row r="25" ht="15.75" spans="1:16">
       <c r="A25" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25" s="26">
         <v>2</v>
@@ -2380,6 +3117,21 @@
       </c>
       <c r="H25" s="28">
         <v>5.5839267</v>
+      </c>
+      <c r="L25" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="O25" s="54">
+        <v>0.161</v>
+      </c>
+      <c r="P25" s="55">
+        <v>0.3535</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2387,13 +3139,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E26" s="30">
         <v>1</v>
@@ -2413,10 +3165,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>11</v>
@@ -2439,10 +3191,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>12</v>
@@ -2465,13 +3217,13 @@
         <v>8</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29" s="22">
         <v>1</v>
@@ -2491,13 +3243,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E30" s="26">
         <v>1</v>
@@ -2517,13 +3269,13 @@
         <v>8</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E31" s="30">
         <v>1</v>
@@ -2543,10 +3295,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D32" s="33" t="s">
         <v>11</v>
@@ -2569,10 +3321,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>12</v>
@@ -2595,13 +3347,13 @@
         <v>8</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" s="22">
         <v>1</v>
@@ -2621,13 +3373,13 @@
         <v>8</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E35" s="26">
         <v>1</v>
@@ -2647,13 +3399,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E36" s="30">
         <v>1</v>
@@ -2673,10 +3425,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D37" s="33" t="s">
         <v>11</v>
@@ -2699,10 +3451,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>12</v>
@@ -2725,13 +3477,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39" s="22">
         <v>1</v>
@@ -2751,13 +3503,13 @@
         <v>8</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E40" s="26">
         <v>1</v>
@@ -2777,13 +3529,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E41" s="30">
         <v>1</v>
@@ -2800,13 +3552,13 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D42" s="33" t="s">
         <v>11</v>
@@ -2826,13 +3578,13 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>12</v>
@@ -2852,16 +3604,16 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E44" s="22">
         <v>1</v>
@@ -2878,16 +3630,16 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E45" s="26">
         <v>1</v>
@@ -2904,16 +3656,16 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E46" s="30">
         <v>1</v>
@@ -2928,15 +3680,15 @@
         <v>20.230156</v>
       </c>
     </row>
-    <row r="47" ht="15.75" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D47" s="33" t="s">
         <v>11</v>
@@ -2956,13 +3708,13 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>12</v>
@@ -2980,18 +3732,18 @@
         <v>2.3466973</v>
       </c>
     </row>
-    <row r="49" ht="15.75" spans="1:8">
+    <row r="49" spans="1:8">
       <c r="A49" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E49" s="22">
         <v>1</v>
@@ -3008,16 +3760,16 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E50" s="26">
         <v>1</v>
@@ -3032,18 +3784,18 @@
         <v>4.9253187</v>
       </c>
     </row>
-    <row r="51" ht="15.75" spans="1:8">
+    <row r="51" spans="1:8">
       <c r="A51" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E51" s="30">
         <v>1</v>
@@ -3058,15 +3810,15 @@
         <v>37.64843</v>
       </c>
     </row>
-    <row r="52" ht="15.75" spans="1:8">
+    <row r="52" spans="1:8">
       <c r="A52" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D52" s="33" t="s">
         <v>11</v>
@@ -3086,13 +3838,13 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>12</v>
@@ -3112,16 +3864,16 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E54" s="22">
         <v>1</v>
@@ -3138,16 +3890,16 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E55" s="26">
         <v>2</v>
@@ -3164,16 +3916,16 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D56" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E56" s="30">
         <v>1</v>
@@ -3190,13 +3942,13 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D57" s="33" t="s">
         <v>11</v>
@@ -3216,13 +3968,13 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>12</v>
@@ -3242,16 +3994,16 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E59" s="22">
         <v>1</v>
@@ -3266,18 +4018,18 @@
         <v>4.523154</v>
       </c>
     </row>
-    <row r="60" ht="15.75" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E60" s="26">
         <v>1</v>
@@ -3294,16 +4046,16 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E61" s="30">
         <v>1</v>
@@ -3320,13 +4072,13 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D62" s="33" t="s">
         <v>11</v>
@@ -3346,13 +4098,13 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>12</v>
@@ -3372,16 +4124,16 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E64" s="22">
         <v>1</v>
@@ -3398,16 +4150,16 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E65" s="26">
         <v>1</v>
@@ -3424,16 +4176,16 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E66" s="30">
         <v>1</v>
@@ -3450,13 +4202,13 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D67" s="33" t="s">
         <v>11</v>
@@ -3476,13 +4228,13 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>12</v>
@@ -3502,16 +4254,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E69" s="22">
         <v>1</v>
@@ -3528,16 +4280,16 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E70" s="26">
         <v>1</v>
@@ -3554,16 +4306,16 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C71" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E71" s="30">
         <v>1</v>
@@ -3580,13 +4332,13 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C72" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D72" s="33" t="s">
         <v>11</v>
@@ -3606,13 +4358,13 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C73" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>12</v>
@@ -3623,7 +4375,7 @@
       <c r="F73" s="19">
         <v>15</v>
       </c>
-      <c r="G73" s="39">
+      <c r="G73" s="19">
         <v>2.38257812976837</v>
       </c>
       <c r="H73" s="20">
@@ -3632,16 +4384,16 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E74" s="22">
         <v>1</v>
@@ -3658,16 +4410,16 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E75" s="26">
         <v>1</v>
@@ -3684,16 +4436,16 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D76" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E76" s="30">
         <v>1</v>
@@ -3710,13 +4462,13 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D77" s="33" t="s">
         <v>11</v>
@@ -3736,13 +4488,13 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>12</v>
@@ -3762,16 +4514,16 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E79" s="22">
         <v>1</v>
@@ -3788,16 +4540,16 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E80" s="26">
         <v>1</v>
@@ -3812,18 +4564,18 @@
         <v>4.5794883</v>
       </c>
     </row>
-    <row r="81" ht="15.75" spans="1:8">
+    <row r="81" spans="1:8">
       <c r="A81" s="14" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C81" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E81" s="30">
         <v>1</v>
@@ -3840,13 +4592,13 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B82" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C82" s="41" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C82" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="D82" s="33" t="s">
         <v>11</v>
@@ -3864,15 +4616,15 @@
         <v>2.9362226</v>
       </c>
     </row>
-    <row r="83" ht="15.75" spans="1:8">
+    <row r="83" spans="1:8">
       <c r="A83" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="41" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>12</v>
@@ -3892,42 +4644,42 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" s="41" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="42">
-        <v>1</v>
-      </c>
-      <c r="F84" s="43">
+        <v>14</v>
+      </c>
+      <c r="E84" s="57">
+        <v>1</v>
+      </c>
+      <c r="F84" s="58">
         <v>2</v>
       </c>
-      <c r="G84" s="43">
+      <c r="G84" s="58">
         <v>2.79826142311096</v>
       </c>
-      <c r="H84" s="44">
+      <c r="H84" s="59">
         <v>2.902236</v>
       </c>
     </row>
-    <row r="85" ht="15.75" spans="1:8">
+    <row r="85" spans="1:8">
       <c r="A85" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C85" s="41" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E85" s="26">
         <v>2</v>
@@ -3942,18 +4694,18 @@
         <v>1.094915</v>
       </c>
     </row>
-    <row r="86" ht="15.75" spans="1:8">
+    <row r="86" spans="1:8">
       <c r="A86" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B86" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" s="41" t="s">
-        <v>45</v>
+        <v>68</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E86" s="30">
         <v>2</v>
@@ -3970,13 +4722,13 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B87" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87" s="41" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="D87" s="33" t="s">
         <v>11</v>
@@ -3996,13 +4748,13 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C88" s="41" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>12</v>
@@ -4022,42 +4774,42 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B89" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="41" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="42">
-        <v>1</v>
-      </c>
-      <c r="F89" s="43">
+        <v>14</v>
+      </c>
+      <c r="E89" s="57">
+        <v>1</v>
+      </c>
+      <c r="F89" s="58">
         <v>8</v>
       </c>
-      <c r="G89" s="43">
+      <c r="G89" s="58">
         <v>2.42311855792999</v>
       </c>
-      <c r="H89" s="44">
+      <c r="H89" s="59">
         <v>5.289367</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B90" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C90" s="41" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E90" s="26">
         <v>1</v>
@@ -4074,16 +4826,16 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B91" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C91" s="41" t="s">
-        <v>47</v>
+        <v>68</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="D91" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E91" s="30">
         <v>1</v>
@@ -4100,13 +4852,13 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B92" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C92" s="41" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="D92" s="33" t="s">
         <v>11</v>
@@ -4126,13 +4878,13 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B93" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93" s="41" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="D93" s="17" t="s">
         <v>12</v>
@@ -4152,42 +4904,42 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B94" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94" s="41" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="42">
-        <v>1</v>
-      </c>
-      <c r="F94" s="43">
-        <v>1</v>
-      </c>
-      <c r="G94" s="43">
+        <v>14</v>
+      </c>
+      <c r="E94" s="57">
+        <v>1</v>
+      </c>
+      <c r="F94" s="58">
+        <v>1</v>
+      </c>
+      <c r="G94" s="58">
         <v>1.73842239856719</v>
       </c>
-      <c r="H94" s="44">
+      <c r="H94" s="59">
         <v>1.6970909</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B95" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="41" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E95" s="26">
         <v>1</v>
@@ -4204,16 +4956,16 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B96" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" s="41" t="s">
-        <v>36</v>
+        <v>68</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E96" s="30">
         <v>1</v>
@@ -4230,12 +4982,12 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B97" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="33" t="s">
@@ -4256,12 +5008,12 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B98" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C98" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="17" t="s">
@@ -4282,42 +5034,42 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C99" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E99" s="42">
+        <v>14</v>
+      </c>
+      <c r="E99" s="57">
         <v>3</v>
       </c>
-      <c r="F99" s="43">
+      <c r="F99" s="58">
         <v>8</v>
       </c>
-      <c r="G99" s="43">
+      <c r="G99" s="58">
         <v>3.01892677977681</v>
       </c>
-      <c r="H99" s="44">
+      <c r="H99" s="59">
         <v>3.5560634</v>
       </c>
     </row>
-    <row r="100" ht="15.75" spans="1:8">
+    <row r="100" spans="1:8">
       <c r="A100" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B100" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C100" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B100" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C100" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E100" s="26">
         <v>1</v>
@@ -4334,16 +5086,16 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B101" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C101" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B101" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E101" s="30">
         <v>1</v>
@@ -4360,13 +5112,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B102" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C102" s="41" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="B102" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="D102" s="33" t="s">
         <v>11</v>
@@ -4386,13 +5138,13 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B103" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="41" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="B103" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C103" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="D103" s="17" t="s">
         <v>12</v>
@@ -4412,42 +5164,42 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B104" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C104" s="41" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="B104" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104" s="42">
-        <v>1</v>
-      </c>
-      <c r="F104" s="43">
         <v>14</v>
       </c>
-      <c r="G104" s="43">
+      <c r="E104" s="57">
+        <v>1</v>
+      </c>
+      <c r="F104" s="58">
+        <v>14</v>
+      </c>
+      <c r="G104" s="58">
         <v>2.60582701683044</v>
       </c>
-      <c r="H104" s="44">
+      <c r="H104" s="59">
         <v>7.8259954</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B105" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C105" s="41" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="B105" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C105" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E105" s="26">
         <v>1</v>
@@ -4464,16 +5216,16 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C106" s="41" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="B106" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C106" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="D106" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E106" s="30">
         <v>1</v>
@@ -4490,13 +5242,13 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B107" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C107" s="41" t="s">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="B107" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="D107" s="33" t="s">
         <v>11</v>
@@ -4516,13 +5268,13 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B108" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C108" s="41" t="s">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="B108" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="D108" s="17" t="s">
         <v>12</v>
@@ -4542,42 +5294,42 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B109" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C109" s="41" t="s">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="B109" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E109" s="42">
+        <v>14</v>
+      </c>
+      <c r="E109" s="57">
         <v>5</v>
       </c>
-      <c r="F109" s="43">
+      <c r="F109" s="58">
         <v>14</v>
       </c>
-      <c r="G109" s="43">
+      <c r="G109" s="58">
         <v>2.21959990501403</v>
       </c>
-      <c r="H109" s="44">
+      <c r="H109" s="59">
         <v>2.1907654</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B110" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C110" s="41" t="s">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="B110" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E110" s="26">
         <v>3</v>
@@ -4594,16 +5346,16 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B111" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C111" s="41" t="s">
-        <v>31</v>
+        <v>68</v>
+      </c>
+      <c r="B111" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E111" s="30">
         <v>3</v>
@@ -4620,19 +5372,19 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B112" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C112" s="41" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="B112" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C112" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="D112" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E112" s="34" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F112" s="35">
         <v>19</v>
@@ -4641,24 +5393,24 @@
         <v>1.1984963034899</v>
       </c>
       <c r="H112" s="36" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B113" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C113" s="41" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="B113" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="D113" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F113" s="19">
         <v>19</v>
@@ -4667,50 +5419,50 @@
         <v>1.17174319274117</v>
       </c>
       <c r="H113" s="20" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B114" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C114" s="41" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="B114" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F114" s="43">
+        <v>14</v>
+      </c>
+      <c r="E114" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F114" s="58">
         <v>19</v>
       </c>
-      <c r="G114" s="43">
+      <c r="G114" s="58">
         <v>1.28995097925788</v>
       </c>
-      <c r="H114" s="44" t="s">
-        <v>57</v>
+      <c r="H114" s="59" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B115" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C115" s="41" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="B115" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="F115" s="27">
         <v>19</v>
@@ -4719,24 +5471,24 @@
         <v>0.638867109453849</v>
       </c>
       <c r="H115" s="28" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B116" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C116" s="41" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="B116" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F116" s="31">
         <v>19</v>
@@ -4745,18 +5497,18 @@
         <v>2.06969873923434</v>
       </c>
       <c r="H116" s="32" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B117" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C117" s="41" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="B117" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="D117" s="33" t="s">
         <v>11</v>
@@ -4776,13 +5528,13 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B118" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C118" s="41" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>12</v>
@@ -4802,42 +5554,42 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B119" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C119" s="41" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="B119" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="D119" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="57">
+        <v>1</v>
+      </c>
+      <c r="F119" s="58">
         <v>13</v>
       </c>
-      <c r="E119" s="42">
-        <v>1</v>
-      </c>
-      <c r="F119" s="43">
-        <v>13</v>
-      </c>
-      <c r="G119" s="43">
+      <c r="G119" s="58">
         <v>1.68169921618241</v>
       </c>
-      <c r="H119" s="44">
+      <c r="H119" s="59">
         <v>5.682999</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B120" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C120" s="41" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="B120" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E120" s="26">
         <v>1</v>
@@ -4854,16 +5606,16 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B121" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C121" s="41" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="B121" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C121" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="D121" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E121" s="30">
         <v>1</v>
@@ -4880,13 +5632,13 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B122" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C122" s="41" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B122" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="D122" s="33" t="s">
         <v>11</v>
@@ -4906,13 +5658,13 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B123" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C123" s="41" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B123" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C123" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="D123" s="17" t="s">
         <v>12</v>
@@ -4932,42 +5684,42 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B124" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="41" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B124" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E124" s="42">
-        <v>1</v>
-      </c>
-      <c r="F124" s="43">
-        <v>1</v>
-      </c>
-      <c r="G124" s="43">
+        <v>14</v>
+      </c>
+      <c r="E124" s="57">
+        <v>1</v>
+      </c>
+      <c r="F124" s="58">
+        <v>1</v>
+      </c>
+      <c r="G124" s="58">
         <v>2.17203092575073</v>
       </c>
-      <c r="H124" s="44">
+      <c r="H124" s="59">
         <v>2.172031</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B125" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C125" s="41" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B125" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E125" s="26">
         <v>1</v>
@@ -4984,16 +5736,16 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B126" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C126" s="41" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="D126" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E126" s="30">
         <v>1</v>
@@ -5010,13 +5762,13 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B127" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C127" s="41" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B127" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C127" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="D127" s="33" t="s">
         <v>11</v>
@@ -5036,13 +5788,13 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B128" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C128" s="41" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B128" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="D128" s="17" t="s">
         <v>12</v>
@@ -5062,42 +5814,42 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B129" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C129" s="41" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B129" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C129" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" s="42">
-        <v>1</v>
-      </c>
-      <c r="F129" s="43">
+        <v>14</v>
+      </c>
+      <c r="E129" s="57">
+        <v>1</v>
+      </c>
+      <c r="F129" s="58">
         <v>8</v>
       </c>
-      <c r="G129" s="43">
+      <c r="G129" s="58">
         <v>3.26025535583496</v>
       </c>
-      <c r="H129" s="44">
+      <c r="H129" s="59">
         <v>7.5551424</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B130" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C130" s="41" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B130" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C130" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E130" s="26">
         <v>1</v>
@@ -5114,16 +5866,16 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B131" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C131" s="41" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C131" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="D131" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E131" s="30">
         <v>1</v>
@@ -5140,13 +5892,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B132" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C132" s="41" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C132" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="D132" s="33" t="s">
         <v>11</v>
@@ -5166,13 +5918,13 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B133" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133" s="41" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="B133" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C133" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="D133" s="17" t="s">
         <v>12</v>
@@ -5192,42 +5944,42 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B134" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C134" s="41" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="B134" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C134" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" s="42">
+        <v>14</v>
+      </c>
+      <c r="E134" s="57">
         <v>17</v>
       </c>
-      <c r="F134" s="43">
+      <c r="F134" s="58">
         <v>22</v>
       </c>
-      <c r="G134" s="43">
+      <c r="G134" s="58">
         <v>1.38841624483195</v>
       </c>
-      <c r="H134" s="44">
+      <c r="H134" s="59">
         <v>1.4296265</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B135" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C135" s="41" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="B135" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="D135" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E135" s="26">
         <v>1</v>
@@ -5244,16 +5996,16 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B136" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C136" s="41" t="s">
-        <v>64</v>
+        <v>68</v>
+      </c>
+      <c r="B136" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>89</v>
       </c>
       <c r="D136" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E136" s="30">
         <v>1</v>
@@ -5270,13 +6022,13 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B137" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C137" s="41" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B137" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C137" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="D137" s="33" t="s">
         <v>11</v>
@@ -5296,13 +6048,13 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B138" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C138" s="41" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B138" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C138" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="D138" s="17" t="s">
         <v>12</v>
@@ -5322,42 +6074,42 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B139" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C139" s="41" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B139" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C139" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="42">
-        <v>1</v>
-      </c>
-      <c r="F139" s="43">
+        <v>14</v>
+      </c>
+      <c r="E139" s="57">
+        <v>1</v>
+      </c>
+      <c r="F139" s="58">
         <v>5</v>
       </c>
-      <c r="G139" s="43">
+      <c r="G139" s="58">
         <v>2.88690897546495</v>
       </c>
-      <c r="H139" s="44">
+      <c r="H139" s="59">
         <v>5.289367</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B140" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C140" s="41" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B140" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C140" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E140" s="26">
         <v>1</v>
@@ -5374,16 +6126,16 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B141" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C141" s="41" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B141" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141" s="38" t="s">
+        <v>91</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E141" s="30">
         <v>1</v>
@@ -5400,13 +6152,13 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B142" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C142" s="41" t="s">
         <v>68</v>
+      </c>
+      <c r="B142" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C142" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D142" s="33" t="s">
         <v>11</v>
@@ -5426,13 +6178,13 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B143" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C143" s="41" t="s">
         <v>68</v>
+      </c>
+      <c r="B143" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C143" s="38" t="s">
+        <v>93</v>
       </c>
       <c r="D143" s="17" t="s">
         <v>12</v>
@@ -5452,42 +6204,42 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B144" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C144" s="41" t="s">
         <v>68</v>
       </c>
+      <c r="B144" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C144" s="38" t="s">
+        <v>93</v>
+      </c>
       <c r="D144" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E144" s="42">
-        <v>1</v>
-      </c>
-      <c r="F144" s="43">
+        <v>14</v>
+      </c>
+      <c r="E144" s="57">
+        <v>1</v>
+      </c>
+      <c r="F144" s="58">
         <v>7</v>
       </c>
-      <c r="G144" s="43">
+      <c r="G144" s="58">
         <v>2.35579746093068</v>
       </c>
-      <c r="H144" s="44">
+      <c r="H144" s="59">
         <v>5.289367</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B145" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C145" s="41" t="s">
         <v>68</v>
       </c>
+      <c r="B145" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C145" s="38" t="s">
+        <v>93</v>
+      </c>
       <c r="D145" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E145" s="26">
         <v>1</v>
@@ -5504,16 +6256,16 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B146" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C146" s="41" t="s">
         <v>68</v>
       </c>
+      <c r="B146" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C146" s="38" t="s">
+        <v>93</v>
+      </c>
       <c r="D146" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E146" s="30">
         <v>1</v>
@@ -5530,13 +6282,13 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B147" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C147" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="B147" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C147" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="D147" s="33" t="s">
         <v>11</v>
@@ -5556,13 +6308,13 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B148" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C148" s="41" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="B148" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C148" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="D148" s="17" t="s">
         <v>12</v>
@@ -5582,42 +6334,42 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B149" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C149" s="41" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="B149" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C149" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E149" s="42">
-        <v>1</v>
-      </c>
-      <c r="F149" s="43">
+        <v>14</v>
+      </c>
+      <c r="E149" s="57">
+        <v>1</v>
+      </c>
+      <c r="F149" s="58">
         <v>6</v>
       </c>
-      <c r="G149" s="43">
+      <c r="G149" s="58">
         <v>3.86893244658576</v>
       </c>
-      <c r="H149" s="44">
+      <c r="H149" s="59">
         <v>4.9715047</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B150" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C150" s="41" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="B150" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C150" s="38" t="s">
+        <v>97</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E150" s="26">
         <v>1</v>
@@ -5634,16 +6386,16 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B151" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C151" s="41" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="B151" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C151" s="38" t="s">
+        <v>98</v>
       </c>
       <c r="D151" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E151" s="30">
         <v>1</v>
@@ -5658,15 +6410,15 @@
         <v>30.036327</v>
       </c>
     </row>
-    <row r="152" ht="15.75" spans="1:8">
+    <row r="152" spans="1:8">
       <c r="A152" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B152" s="37" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C152" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D152" s="33" t="s">
         <v>11</v>
@@ -5686,13 +6438,13 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C153" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D153" s="17" t="s">
         <v>12</v>
@@ -5710,18 +6462,18 @@
         <v>6.502338</v>
       </c>
     </row>
-    <row r="154" ht="15.75" spans="1:8">
+    <row r="154" spans="1:8">
       <c r="A154" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C154" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E154" s="22">
         <v>2</v>
@@ -5738,16 +6490,16 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B155" s="37" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C155" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D155" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E155" s="26">
         <v>2</v>
@@ -5762,18 +6514,18 @@
         <v>6.617219</v>
       </c>
     </row>
-    <row r="156" ht="15.75" spans="1:8">
+    <row r="156" spans="1:8">
       <c r="A156" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C156" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D156" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E156" s="30">
         <v>2</v>
@@ -5788,15 +6540,15 @@
         <v>10.609957</v>
       </c>
     </row>
-    <row r="157" ht="15.75" spans="1:8">
+    <row r="157" spans="1:8">
       <c r="A157" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B157" s="45" t="s">
-        <v>76</v>
+        <v>99</v>
+      </c>
+      <c r="B157" s="60" t="s">
+        <v>101</v>
       </c>
       <c r="C157" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D157" s="33" t="s">
         <v>11</v>
@@ -5816,13 +6568,13 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B158" s="45" t="s">
-        <v>76</v>
+        <v>99</v>
+      </c>
+      <c r="B158" s="60" t="s">
+        <v>101</v>
       </c>
       <c r="C158" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>12</v>
@@ -5842,16 +6594,16 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B159" s="45" t="s">
-        <v>76</v>
+        <v>99</v>
+      </c>
+      <c r="B159" s="60" t="s">
+        <v>101</v>
       </c>
       <c r="C159" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E159" s="22">
         <v>1</v>
@@ -5868,16 +6620,16 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B160" s="45" t="s">
-        <v>76</v>
+        <v>99</v>
+      </c>
+      <c r="B160" s="60" t="s">
+        <v>101</v>
       </c>
       <c r="C160" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E160" s="26">
         <v>1</v>
@@ -5894,16 +6646,16 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B161" s="45" t="s">
-        <v>76</v>
+        <v>99</v>
+      </c>
+      <c r="B161" s="60" t="s">
+        <v>101</v>
       </c>
       <c r="C161" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D161" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E161" s="30">
         <v>1</v>
@@ -5920,13 +6672,13 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B162" s="45" t="s">
-        <v>77</v>
+        <v>99</v>
+      </c>
+      <c r="B162" s="60" t="s">
+        <v>102</v>
       </c>
       <c r="C162" s="38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D162" s="33" t="s">
         <v>11</v>
@@ -5946,13 +6698,13 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B163" s="45" t="s">
-        <v>77</v>
+        <v>99</v>
+      </c>
+      <c r="B163" s="60" t="s">
+        <v>102</v>
       </c>
       <c r="C163" s="38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D163" s="17" t="s">
         <v>12</v>
@@ -5972,16 +6724,16 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B164" s="45" t="s">
-        <v>77</v>
+        <v>99</v>
+      </c>
+      <c r="B164" s="60" t="s">
+        <v>102</v>
       </c>
       <c r="C164" s="38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E164" s="22">
         <v>4</v>
@@ -5998,16 +6750,16 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B165" s="45" t="s">
-        <v>77</v>
+        <v>99</v>
+      </c>
+      <c r="B165" s="60" t="s">
+        <v>102</v>
       </c>
       <c r="C165" s="38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D165" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E165" s="26">
         <v>4</v>
@@ -6024,16 +6776,16 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B166" s="45" t="s">
-        <v>77</v>
+        <v>99</v>
+      </c>
+      <c r="B166" s="60" t="s">
+        <v>102</v>
       </c>
       <c r="C166" s="38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D166" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E166" s="30">
         <v>5</v>
@@ -6048,12 +6800,12 @@
         <v>4.4879527</v>
       </c>
     </row>
-    <row r="167" ht="15.75" spans="1:8">
+    <row r="167" spans="1:8">
       <c r="A167" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B167" s="37" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C167" s="38" t="s">
         <v>10</v>
@@ -6076,10 +6828,10 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B168" s="37" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C168" s="38" t="s">
         <v>10</v>
@@ -6102,16 +6854,16 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B169" s="37" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C169" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E169" s="22">
         <v>4</v>
@@ -6128,16 +6880,16 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B170" s="37" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C170" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D170" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E170" s="26">
         <v>2</v>
@@ -6154,16 +6906,16 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B171" s="37" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C171" s="38" t="s">
         <v>10</v>
       </c>
       <c r="D171" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E171" s="30">
         <v>2</v>
@@ -6180,13 +6932,13 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B172" s="45" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="B172" s="60" t="s">
+        <v>104</v>
       </c>
       <c r="C172" s="38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D172" s="33" t="s">
         <v>11</v>
@@ -6206,13 +6958,13 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B173" s="45" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="B173" s="60" t="s">
+        <v>104</v>
       </c>
       <c r="C173" s="38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D173" s="17" t="s">
         <v>12</v>
@@ -6232,16 +6984,16 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B174" s="45" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="B174" s="60" t="s">
+        <v>104</v>
       </c>
       <c r="C174" s="38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E174" s="22">
         <v>5</v>
@@ -6258,16 +7010,16 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B175" s="45" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="B175" s="60" t="s">
+        <v>104</v>
       </c>
       <c r="C175" s="38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E175" s="26">
         <v>5</v>
@@ -6284,16 +7036,16 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B176" s="45" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="B176" s="60" t="s">
+        <v>104</v>
       </c>
       <c r="C176" s="38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D176" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E176" s="30">
         <v>5</v>
@@ -6310,13 +7062,13 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B177" s="37" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C177" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D177" s="33" t="s">
         <v>11</v>
@@ -6336,13 +7088,13 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B178" s="37" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C178" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D178" s="17" t="s">
         <v>12</v>
@@ -6362,16 +7114,16 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B179" s="37" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C179" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E179" s="22">
         <v>1</v>
@@ -6388,16 +7140,16 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B180" s="37" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C180" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D180" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E180" s="26">
         <v>1</v>
@@ -6414,16 +7166,16 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B181" s="37" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C181" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D181" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E181" s="30">
         <v>1</v>
@@ -6440,13 +7192,13 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B182" s="37" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C182" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D182" s="33" t="s">
         <v>11</v>
@@ -6466,13 +7218,13 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B183" s="37" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C183" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D183" s="17" t="s">
         <v>12</v>
@@ -6492,16 +7244,16 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B184" s="37" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C184" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E184" s="22">
         <v>1</v>
@@ -6518,16 +7270,16 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B185" s="37" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C185" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D185" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E185" s="26">
         <v>1</v>
@@ -6544,16 +7296,16 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="14" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="B186" s="37" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C186" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D186" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E186" s="30">
         <v>1</v>
@@ -6570,13 +7322,13 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B187" s="46" t="s">
-        <v>82</v>
+        <v>99</v>
+      </c>
+      <c r="B187" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="C187" s="38" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D187" s="33" t="s">
         <v>11</v>
@@ -6596,13 +7348,13 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B188" s="46" t="s">
-        <v>82</v>
+        <v>99</v>
+      </c>
+      <c r="B188" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="C188" s="38" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D188" s="17" t="s">
         <v>12</v>
@@ -6622,16 +7374,16 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B189" s="46" t="s">
-        <v>82</v>
+        <v>99</v>
+      </c>
+      <c r="B189" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="C189" s="38" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E189" s="22">
         <v>1</v>
@@ -6648,16 +7400,16 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B190" s="46" t="s">
-        <v>82</v>
+        <v>99</v>
+      </c>
+      <c r="B190" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="C190" s="38" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D190" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E190" s="26">
         <v>1</v>
@@ -6674,16 +7426,16 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B191" s="46" t="s">
-        <v>82</v>
+        <v>99</v>
+      </c>
+      <c r="B191" s="61" t="s">
+        <v>107</v>
       </c>
       <c r="C191" s="38" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D191" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E191" s="30">
         <v>1</v>
@@ -6700,13 +7452,13 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B192" s="45" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="B192" s="60" t="s">
+        <v>108</v>
       </c>
       <c r="C192" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D192" s="33" t="s">
         <v>11</v>
@@ -6726,13 +7478,13 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B193" s="45" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="B193" s="60" t="s">
+        <v>108</v>
       </c>
       <c r="C193" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D193" s="17" t="s">
         <v>12</v>
@@ -6752,16 +7504,16 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B194" s="45" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="B194" s="60" t="s">
+        <v>108</v>
       </c>
       <c r="C194" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E194" s="22">
         <v>1</v>
@@ -6778,16 +7530,16 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B195" s="45" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="B195" s="60" t="s">
+        <v>108</v>
       </c>
       <c r="C195" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D195" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E195" s="26">
         <v>1</v>
@@ -6804,16 +7556,16 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B196" s="45" t="s">
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="B196" s="60" t="s">
+        <v>108</v>
       </c>
       <c r="C196" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D196" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E196" s="30">
         <v>1</v>
@@ -6830,19 +7582,19 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B197" s="37" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C197" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D197" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E197" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F197" s="35">
         <v>0</v>
@@ -6851,18 +7603,18 @@
         <v>0</v>
       </c>
       <c r="H197" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="198" ht="15.75" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B198" s="37" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C198" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D198" s="17" t="s">
         <v>12</v>
@@ -6882,16 +7634,16 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B199" s="37" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C199" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E199" s="22">
         <v>4</v>
@@ -6906,18 +7658,18 @@
         <v>2.6391125</v>
       </c>
     </row>
-    <row r="200" ht="15.75" spans="1:8">
+    <row r="200" spans="1:8">
       <c r="A200" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B200" s="37" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C200" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D200" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E200" s="26">
         <v>2</v>
@@ -6934,16 +7686,16 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B201" s="37" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C201" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D201" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E201" s="30">
         <v>1</v>
@@ -6958,21 +7710,21 @@
         <v>2.834891</v>
       </c>
     </row>
-    <row r="202" ht="15.75" spans="1:8">
+    <row r="202" spans="1:8">
       <c r="A202" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B202" s="37" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C202" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D202" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E202" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F202" s="35">
         <v>0</v>
@@ -6981,18 +7733,18 @@
         <v>0</v>
       </c>
       <c r="H202" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="203" ht="15.75" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B203" s="37" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C203" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D203" s="17" t="s">
         <v>12</v>
@@ -7012,16 +7764,16 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B204" s="37" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C204" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E204" s="22">
         <v>4</v>
@@ -7038,16 +7790,16 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B205" s="37" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C205" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D205" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E205" s="26">
         <v>2</v>
@@ -7064,16 +7816,16 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B206" s="37" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C206" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D206" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E206" s="30">
         <v>1</v>
@@ -7090,13 +7842,13 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B207" s="37" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C207" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D207" s="33" t="s">
         <v>11</v>
@@ -7116,13 +7868,13 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B208" s="37" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C208" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D208" s="17" t="s">
         <v>12</v>
@@ -7142,16 +7894,16 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B209" s="37" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C209" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E209" s="22">
         <v>1</v>
@@ -7168,16 +7920,16 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B210" s="37" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C210" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D210" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E210" s="26">
         <v>1</v>
@@ -7194,16 +7946,16 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B211" s="37" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C211" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D211" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E211" s="30">
         <v>2</v>
@@ -7220,19 +7972,19 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B212" s="37" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C212" s="38" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D212" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E212" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F212" s="35">
         <v>0</v>
@@ -7241,24 +7993,24 @@
         <v>0</v>
       </c>
       <c r="H212" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="213" ht="15.75" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B213" s="37" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C213" s="38" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D213" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E213" s="18" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F213" s="19">
         <v>0</v>
@@ -7267,21 +8019,21 @@
         <v>0</v>
       </c>
       <c r="H213" s="20" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B214" s="37" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C214" s="38" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E214" s="22">
         <v>1</v>
@@ -7298,16 +8050,16 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B215" s="37" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C215" s="38" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D215" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E215" s="26">
         <v>1</v>
@@ -7324,16 +8076,16 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B216" s="37" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C216" s="38" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D216" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E216" s="30">
         <v>1</v>
@@ -7350,19 +8102,19 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B217" s="37" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C217" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D217" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E217" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F217" s="35">
         <v>1</v>
@@ -7371,24 +8123,24 @@
         <v>2.2046947479248</v>
       </c>
       <c r="H217" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B218" s="37" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C218" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D218" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E218" s="18" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F218" s="19">
         <v>1</v>
@@ -7397,21 +8149,21 @@
         <v>2.172031</v>
       </c>
       <c r="H218" s="20" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B219" s="37" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C219" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E219" s="22">
         <v>1</v>
@@ -7428,16 +8180,16 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B220" s="37" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C220" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D220" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E220" s="26">
         <v>1</v>
@@ -7454,16 +8206,16 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B221" s="37" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="C221" s="38" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D221" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E221" s="30">
         <v>1</v>
@@ -7480,19 +8232,19 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B222" s="37" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C222" s="38" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D222" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E222" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F222" s="35">
         <v>0</v>
@@ -7501,24 +8253,24 @@
         <v>0</v>
       </c>
       <c r="H222" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B223" s="37" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C223" s="38" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D223" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E223" s="18" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F223" s="19">
         <v>0</v>
@@ -7527,24 +8279,24 @@
         <v>0</v>
       </c>
       <c r="H223" s="20" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B224" s="37" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C224" s="38" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E224" s="22" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F224" s="23">
         <v>0</v>
@@ -7553,24 +8305,24 @@
         <v>0</v>
       </c>
       <c r="H224" s="24" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B225" s="37" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C225" s="38" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E225" s="26" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F225" s="27">
         <v>0</v>
@@ -7579,24 +8331,24 @@
         <v>0</v>
       </c>
       <c r="H225" s="28" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B226" s="37" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C226" s="38" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D226" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E226" s="30" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F226" s="31">
         <v>0</v>
@@ -7605,24 +8357,24 @@
         <v>0</v>
       </c>
       <c r="H226" s="32" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B227" s="37" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C227" s="38" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D227" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E227" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F227" s="35">
         <v>0</v>
@@ -7631,24 +8383,24 @@
         <v>0</v>
       </c>
       <c r="H227" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B228" s="37" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C228" s="38" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D228" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E228" s="18" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F228" s="19">
         <v>0</v>
@@ -7657,24 +8409,24 @@
         <v>0</v>
       </c>
       <c r="H228" s="20" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B229" s="37" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C229" s="38" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F229" s="23">
         <v>0</v>
@@ -7683,24 +8435,24 @@
         <v>0</v>
       </c>
       <c r="H229" s="24" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B230" s="37" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C230" s="38" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E230" s="26" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F230" s="27">
         <v>0</v>
@@ -7709,24 +8461,24 @@
         <v>0</v>
       </c>
       <c r="H230" s="28" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="14" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B231" s="37" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C231" s="38" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D231" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E231" s="30" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F231" s="31">
         <v>0</v>
@@ -7735,24 +8487,24 @@
         <v>0</v>
       </c>
       <c r="H231" s="32" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B232" s="46" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="B232" s="61" t="s">
+        <v>122</v>
       </c>
       <c r="C232" s="38" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D232" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E232" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F232" s="35">
         <v>0</v>
@@ -7761,18 +8513,18 @@
         <v>0</v>
       </c>
       <c r="H232" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B233" s="46" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="B233" s="61" t="s">
+        <v>122</v>
       </c>
       <c r="C233" s="38" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D233" s="17" t="s">
         <v>12</v>
@@ -7792,16 +8544,16 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B234" s="46" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="B234" s="61" t="s">
+        <v>122</v>
       </c>
       <c r="C234" s="38" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E234" s="22">
         <v>1</v>
@@ -7818,16 +8570,16 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B235" s="46" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="B235" s="61" t="s">
+        <v>122</v>
       </c>
       <c r="C235" s="38" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D235" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E235" s="26">
         <v>1</v>
@@ -7844,16 +8596,16 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B236" s="46" t="s">
-        <v>97</v>
+        <v>109</v>
+      </c>
+      <c r="B236" s="61" t="s">
+        <v>122</v>
       </c>
       <c r="C236" s="38" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="D236" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E236" s="30">
         <v>1</v>
@@ -7868,21 +8620,21 @@
         <v>18.824215</v>
       </c>
     </row>
-    <row r="237" ht="15.75" spans="1:8">
+    <row r="237" spans="1:8">
       <c r="A237" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B237" s="37" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C237" s="38" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D237" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E237" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F237" s="35">
         <v>0</v>
@@ -7891,24 +8643,24 @@
         <v>0</v>
       </c>
       <c r="H237" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B238" s="37" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C238" s="38" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D238" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E238" s="18" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F238" s="19">
         <v>0</v>
@@ -7917,24 +8669,24 @@
         <v>0</v>
       </c>
       <c r="H238" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="239" ht="15.75" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B239" s="37" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C239" s="38" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E239" s="22" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F239" s="23">
         <v>0</v>
@@ -7943,24 +8695,24 @@
         <v>0</v>
       </c>
       <c r="H239" s="24" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B240" s="37" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C240" s="38" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D240" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E240" s="26" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F240" s="27">
         <v>0</v>
@@ -7969,24 +8721,24 @@
         <v>0</v>
       </c>
       <c r="H240" s="28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="241" ht="15.75" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B241" s="37" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="C241" s="38" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D241" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E241" s="30" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F241" s="31">
         <v>0</v>
@@ -7995,24 +8747,24 @@
         <v>0</v>
       </c>
       <c r="H241" s="32" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B242" s="37" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C242" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D242" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E242" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F242" s="35">
         <v>0</v>
@@ -8021,24 +8773,24 @@
         <v>0</v>
       </c>
       <c r="H242" s="36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="243" ht="15.75" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B243" s="37" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C243" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D243" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E243" s="18" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F243" s="19">
         <v>0</v>
@@ -8047,24 +8799,24 @@
         <v>0</v>
       </c>
       <c r="H243" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="244" ht="15.75" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B244" s="37" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C244" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E244" s="22" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F244" s="23">
         <v>0</v>
@@ -8073,24 +8825,24 @@
         <v>0</v>
       </c>
       <c r="H244" s="24" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B245" s="37" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C245" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D245" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E245" s="26" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F245" s="27">
         <v>0</v>
@@ -8099,24 +8851,24 @@
         <v>0</v>
       </c>
       <c r="H245" s="28" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B246" s="37" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C246" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D246" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E246" s="30" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F246" s="31">
         <v>0</v>
@@ -8125,24 +8877,24 @@
         <v>0</v>
       </c>
       <c r="H246" s="32" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B247" s="37" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C247" s="38" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D247" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E247" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F247" s="35">
         <v>0</v>
@@ -8151,24 +8903,24 @@
         <v>0</v>
       </c>
       <c r="H247" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B248" s="37" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C248" s="38" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D248" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E248" s="18" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F248" s="19">
         <v>0</v>
@@ -8177,24 +8929,24 @@
         <v>0</v>
       </c>
       <c r="H248" s="20" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B249" s="37" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C249" s="38" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F249" s="23">
         <v>0</v>
@@ -8203,24 +8955,24 @@
         <v>0</v>
       </c>
       <c r="H249" s="24" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B250" s="37" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C250" s="38" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E250" s="26" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F250" s="27">
         <v>0</v>
@@ -8229,24 +8981,24 @@
         <v>0</v>
       </c>
       <c r="H250" s="28" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B251" s="37" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="C251" s="38" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="D251" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E251" s="30" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F251" s="31">
         <v>0</v>
@@ -8255,24 +9007,24 @@
         <v>0</v>
       </c>
       <c r="H251" s="32" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B252" s="37" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C252" s="38" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D252" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E252" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F252" s="35">
         <v>0</v>
@@ -8281,24 +9033,24 @@
         <v>0</v>
       </c>
       <c r="H252" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B253" s="37" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C253" s="38" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D253" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E253" s="18" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F253" s="19">
         <v>0</v>
@@ -8307,24 +9059,24 @@
         <v>0</v>
       </c>
       <c r="H253" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="254" ht="15.75" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B254" s="37" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C254" s="38" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D254" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E254" s="22" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F254" s="23">
         <v>0</v>
@@ -8333,24 +9085,24 @@
         <v>0</v>
       </c>
       <c r="H254" s="24" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B255" s="37" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C255" s="38" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E255" s="26" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F255" s="27">
         <v>0</v>
@@ -8359,24 +9111,24 @@
         <v>0</v>
       </c>
       <c r="H255" s="28" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B256" s="37" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C256" s="38" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D256" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E256" s="30" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F256" s="31">
         <v>0</v>
@@ -8385,24 +9137,24 @@
         <v>0</v>
       </c>
       <c r="H256" s="32" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B257" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C257" s="41" t="s">
-        <v>33</v>
+        <v>123</v>
+      </c>
+      <c r="B257" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C257" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="D257" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E257" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F257" s="35">
         <v>0</v>
@@ -8411,18 +9163,18 @@
         <v>0</v>
       </c>
       <c r="H257" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B258" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C258" s="41" t="s">
-        <v>33</v>
+        <v>123</v>
+      </c>
+      <c r="B258" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C258" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="D258" s="17" t="s">
         <v>12</v>
@@ -8442,16 +9194,16 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B259" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C259" s="41" t="s">
-        <v>33</v>
+        <v>123</v>
+      </c>
+      <c r="B259" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C259" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E259" s="22">
         <v>1</v>
@@ -8468,16 +9220,16 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B260" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C260" s="41" t="s">
-        <v>33</v>
+        <v>123</v>
+      </c>
+      <c r="B260" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C260" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="D260" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E260" s="26">
         <v>1</v>
@@ -8494,16 +9246,16 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B261" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C261" s="41" t="s">
-        <v>33</v>
+        <v>123</v>
+      </c>
+      <c r="B261" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C261" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="D261" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E261" s="30">
         <v>1</v>
@@ -8520,19 +9272,19 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B262" s="37" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C262" s="38" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D262" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E262" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F262" s="35">
         <v>0</v>
@@ -8541,18 +9293,18 @@
         <v>0</v>
       </c>
       <c r="H262" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B263" s="37" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C263" s="38" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D263" s="17" t="s">
         <v>12</v>
@@ -8572,16 +9324,16 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B264" s="37" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C264" s="38" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D264" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E264" s="22">
         <v>1</v>
@@ -8598,16 +9350,16 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B265" s="37" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C265" s="38" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E265" s="26">
         <v>1</v>
@@ -8624,16 +9376,16 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B266" s="37" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C266" s="38" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D266" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E266" s="30">
         <v>1</v>
@@ -8650,19 +9402,19 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B267" s="37" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C267" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D267" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E267" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F267" s="35">
         <v>0</v>
@@ -8671,18 +9423,18 @@
         <v>0</v>
       </c>
       <c r="H267" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B268" s="37" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C268" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D268" s="17" t="s">
         <v>12</v>
@@ -8702,16 +9454,16 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B269" s="37" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C269" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D269" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E269" s="22">
         <v>1</v>
@@ -8728,16 +9480,16 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B270" s="37" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C270" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D270" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E270" s="26">
         <v>1</v>
@@ -8754,16 +9506,16 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B271" s="37" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="C271" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D271" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E271" s="30">
         <v>1</v>
@@ -8780,19 +9532,19 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B272" s="37" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C272" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D272" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E272" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F272" s="35">
         <v>0</v>
@@ -8801,18 +9553,18 @@
         <v>0</v>
       </c>
       <c r="H272" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B273" s="37" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C273" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D273" s="17" t="s">
         <v>12</v>
@@ -8832,16 +9584,16 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B274" s="37" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C274" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E274" s="22">
         <v>17</v>
@@ -8858,16 +9610,16 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B275" s="37" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C275" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D275" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E275" s="26">
         <v>6</v>
@@ -8884,16 +9636,16 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B276" s="37" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C276" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D276" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E276" s="30">
         <v>6</v>
@@ -8910,19 +9662,19 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B277" s="37" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C277" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D277" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E277" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F277" s="35">
         <v>0</v>
@@ -8931,18 +9683,18 @@
         <v>0</v>
       </c>
       <c r="H277" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B278" s="37" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C278" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D278" s="17" t="s">
         <v>12</v>
@@ -8962,16 +9714,16 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B279" s="37" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C279" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E279" s="22">
         <v>4</v>
@@ -8988,16 +9740,16 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B280" s="37" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C280" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E280" s="26">
         <v>2</v>
@@ -9014,16 +9766,16 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B281" s="37" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C281" s="38" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D281" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E281" s="30">
         <v>2</v>
@@ -9040,13 +9792,13 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B282" s="37" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C282" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D282" s="33" t="s">
         <v>11</v>
@@ -9066,13 +9818,13 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B283" s="37" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C283" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D283" s="17" t="s">
         <v>12</v>
@@ -9092,16 +9844,16 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B284" s="37" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C284" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E284" s="22">
         <v>1</v>
@@ -9118,16 +9870,16 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B285" s="37" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C285" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D285" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E285" s="26">
         <v>3</v>
@@ -9142,18 +9894,18 @@
         <v>2.4626594</v>
       </c>
     </row>
-    <row r="286" ht="15.75" spans="1:8">
+    <row r="286" spans="1:8">
       <c r="A286" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B286" s="37" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="C286" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D286" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E286" s="30">
         <v>3</v>
@@ -9170,13 +9922,13 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B287" s="37" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C287" s="38" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D287" s="33" t="s">
         <v>11</v>
@@ -9194,15 +9946,15 @@
         <v>5.5136414</v>
       </c>
     </row>
-    <row r="288" ht="15.75" spans="1:8">
+    <row r="288" spans="1:8">
       <c r="A288" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B288" s="37" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C288" s="38" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D288" s="17" t="s">
         <v>12</v>
@@ -9222,16 +9974,16 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B289" s="37" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C289" s="38" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E289" s="22">
         <v>1</v>
@@ -9246,18 +9998,18 @@
         <v>10.578734</v>
       </c>
     </row>
-    <row r="290" ht="15.75" spans="1:8">
+    <row r="290" spans="1:8">
       <c r="A290" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B290" s="37" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C290" s="38" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E290" s="26">
         <v>1</v>
@@ -9272,18 +10024,18 @@
         <v>4.9253187</v>
       </c>
     </row>
-    <row r="291" ht="15.75" spans="1:8">
+    <row r="291" spans="1:8">
       <c r="A291" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B291" s="37" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C291" s="38" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D291" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E291" s="30">
         <v>1</v>
@@ -9300,13 +10052,13 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B292" s="37" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C292" s="38" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D292" s="33" t="s">
         <v>11</v>
@@ -9326,13 +10078,13 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B293" s="37" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C293" s="38" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D293" s="17" t="s">
         <v>12</v>
@@ -9352,16 +10104,16 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B294" s="37" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C294" s="38" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E294" s="22">
         <v>1</v>
@@ -9378,16 +10130,16 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B295" s="37" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C295" s="38" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E295" s="26">
         <v>1</v>
@@ -9404,16 +10156,16 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B296" s="37" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="C296" s="38" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="D296" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E296" s="30">
         <v>1</v>
@@ -9430,19 +10182,19 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B297" s="37" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C297" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D297" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E297" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F297" s="35">
         <v>0</v>
@@ -9451,18 +10203,18 @@
         <v>0</v>
       </c>
       <c r="H297" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B298" s="37" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C298" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D298" s="17" t="s">
         <v>12</v>
@@ -9482,16 +10234,16 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B299" s="37" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C299" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E299" s="22">
         <v>1</v>
@@ -9508,16 +10260,16 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B300" s="37" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C300" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D300" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E300" s="26">
         <v>1</v>
@@ -9532,18 +10284,18 @@
         <v>2.3248553</v>
       </c>
     </row>
-    <row r="301" ht="15.75" spans="1:8">
+    <row r="301" spans="1:8">
       <c r="A301" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B301" s="37" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="C301" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D301" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E301" s="30">
         <v>1</v>
@@ -9560,19 +10312,19 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B302" s="37" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C302" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D302" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E302" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F302" s="35">
         <v>1</v>
@@ -9581,24 +10333,24 @@
         <v>2.6476194858551</v>
       </c>
       <c r="H302" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B303" s="37" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C303" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D303" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E303" s="18" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F303" s="19">
         <v>1</v>
@@ -9607,21 +10359,21 @@
         <v>2.61295</v>
       </c>
       <c r="H303" s="20" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B304" s="37" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C304" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E304" s="22">
         <v>3</v>
@@ -9638,16 +10390,16 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B305" s="37" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C305" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D305" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E305" s="26">
         <v>3</v>
@@ -9664,16 +10416,16 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B306" s="37" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="C306" s="38" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="D306" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E306" s="30">
         <v>3</v>
@@ -9690,13 +10442,13 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B307" s="37" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C307" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D307" s="33" t="s">
         <v>11</v>
@@ -9716,13 +10468,13 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B308" s="37" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C308" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D308" s="17" t="s">
         <v>12</v>
@@ -9742,16 +10494,16 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B309" s="37" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C309" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E309" s="22">
         <v>1</v>
@@ -9768,16 +10520,16 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B310" s="37" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C310" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D310" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E310" s="26">
         <v>1</v>
@@ -9794,16 +10546,16 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B311" s="37" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C311" s="38" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D311" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E311" s="30">
         <v>1</v>
@@ -9820,13 +10572,13 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B312" s="37" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C312" s="38" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D312" s="33" t="s">
         <v>11</v>
@@ -9846,13 +10598,13 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B313" s="37" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C313" s="38" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D313" s="17" t="s">
         <v>12</v>
@@ -9872,16 +10624,16 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B314" s="37" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C314" s="38" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E314" s="22">
         <v>3</v>
@@ -9898,16 +10650,16 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B315" s="37" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C315" s="38" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D315" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E315" s="26">
         <v>3</v>
@@ -9924,16 +10676,16 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B316" s="37" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="C316" s="38" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="D316" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E316" s="30">
         <v>3</v>
@@ -9950,19 +10702,19 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B317" s="37" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C317" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D317" s="33" t="s">
         <v>11</v>
       </c>
       <c r="E317" s="34" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="F317" s="35">
         <v>0</v>
@@ -9971,18 +10723,18 @@
         <v>0</v>
       </c>
       <c r="H317" s="36" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B318" s="37" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C318" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D318" s="17" t="s">
         <v>12</v>
@@ -10002,16 +10754,16 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B319" s="37" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C319" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E319" s="22">
         <v>3</v>
@@ -10028,16 +10780,16 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B320" s="37" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C320" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D320" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E320" s="26">
         <v>3</v>
@@ -10054,16 +10806,16 @@
     </row>
     <row r="321" spans="1:8">
       <c r="A321" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B321" s="37" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C321" s="38" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D321" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E321" s="30">
         <v>3</v>
@@ -10080,13 +10832,13 @@
     </row>
     <row r="322" spans="1:8">
       <c r="A322" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B322" s="37" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C322" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D322" s="33" t="s">
         <v>11</v>
@@ -10106,13 +10858,13 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C323" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D323" s="17" t="s">
         <v>12</v>
@@ -10132,16 +10884,16 @@
     </row>
     <row r="324" spans="1:8">
       <c r="A324" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B324" s="37" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C324" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E324" s="22">
         <v>3</v>
@@ -10158,16 +10910,16 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B325" s="37" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C325" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D325" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E325" s="26">
         <v>2</v>
@@ -10184,16 +10936,16 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" s="14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B326" s="37" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C326" s="38" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D326" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E326" s="30">
         <v>1</v>
@@ -10210,13 +10962,13 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B327" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C327" s="41" t="s">
-        <v>59</v>
+        <v>137</v>
+      </c>
+      <c r="B327" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C327" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="D327" s="33" t="s">
         <v>11</v>
@@ -10236,13 +10988,13 @@
     </row>
     <row r="328" spans="1:8">
       <c r="A328" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B328" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C328" s="41" t="s">
-        <v>59</v>
+        <v>137</v>
+      </c>
+      <c r="B328" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C328" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="D328" s="17" t="s">
         <v>12</v>
@@ -10262,16 +11014,16 @@
     </row>
     <row r="329" spans="1:8">
       <c r="A329" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B329" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C329" s="41" t="s">
-        <v>59</v>
+        <v>137</v>
+      </c>
+      <c r="B329" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C329" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E329" s="22">
         <v>1</v>
@@ -10288,16 +11040,16 @@
     </row>
     <row r="330" spans="1:8">
       <c r="A330" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B330" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C330" s="41" t="s">
-        <v>59</v>
+        <v>137</v>
+      </c>
+      <c r="B330" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C330" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="D330" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E330" s="26">
         <v>1</v>
@@ -10314,16 +11066,16 @@
     </row>
     <row r="331" spans="1:8">
       <c r="A331" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B331" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C331" s="41" t="s">
-        <v>59</v>
+        <v>137</v>
+      </c>
+      <c r="B331" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="C331" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="D331" s="29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E331" s="30">
         <v>1</v>
@@ -10340,13 +11092,13 @@
     </row>
     <row r="332" spans="1:8">
       <c r="A332" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B332" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C332" s="41" t="s">
-        <v>125</v>
+        <v>137</v>
+      </c>
+      <c r="B332" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C332" s="38" t="s">
+        <v>150</v>
       </c>
       <c r="D332" s="33" t="s">
         <v>11</v>
@@ -10366,13 +11118,13 @@
     </row>
     <row r="333" spans="1:8">
       <c r="A333" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B333" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C333" s="41" t="s">
-        <v>126</v>
+        <v>137</v>
+      </c>
+      <c r="B333" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C333" s="38" t="s">
+        <v>151</v>
       </c>
       <c r="D333" s="17" t="s">
         <v>12</v>
@@ -10392,16 +11144,16 @@
     </row>
     <row r="334" spans="1:8">
       <c r="A334" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B334" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C334" s="41" t="s">
-        <v>127</v>
+        <v>137</v>
+      </c>
+      <c r="B334" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C334" s="38" t="s">
+        <v>152</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E334" s="22">
         <v>3</v>
@@ -10418,16 +11170,16 @@
     </row>
     <row r="335" spans="1:8">
       <c r="A335" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B335" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C335" s="41" t="s">
-        <v>128</v>
+        <v>137</v>
+      </c>
+      <c r="B335" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C335" s="38" t="s">
+        <v>153</v>
       </c>
       <c r="D335" s="25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E335" s="26">
         <v>3</v>
@@ -10443,28 +11195,28 @@
       </c>
     </row>
     <row r="336" s="2" customFormat="1" ht="15.75" spans="1:31">
-      <c r="A336" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B336" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C336" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D336" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="E336" s="51">
+      <c r="A336" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B336" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C336" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="D336" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E336" s="66">
         <v>3</v>
       </c>
-      <c r="F336" s="52">
+      <c r="F336" s="67">
         <v>14</v>
       </c>
-      <c r="G336" s="52">
+      <c r="G336" s="67">
         <v>1.65669864961079</v>
       </c>
-      <c r="H336" s="53">
+      <c r="H336" s="68">
         <v>2.4229093</v>
       </c>
       <c r="I336"/>
